--- a/Макеты/ВА_ИмпортExcel+Шаблон.xlsx
+++ b/Макеты/ВА_ИмпортExcel+Шаблон.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -25,97 +25,97 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>VA - ImportExcel</t>
-  </si>
-  <si>
-    <t>Counterparties</t>
-  </si>
-  <si>
-    <t>Counterparty contracts</t>
-  </si>
-  <si>
-    <t>Product categories</t>
-  </si>
-  <si>
-    <t>Product range</t>
-  </si>
-  <si>
-    <t>Cash flow items</t>
-  </si>
-  <si>
-    <t>Income and expense items</t>
-  </si>
-  <si>
-    <t>Currencies</t>
-  </si>
-  <si>
-    <t>January 2023</t>
-  </si>
-  <si>
-    <t>February 2023</t>
-  </si>
-  <si>
-    <t>March 2023</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Line_Synthetic_1</t>
-  </si>
-  <si>
-    <t>Group_Synthetic</t>
-  </si>
-  <si>
-    <t>Line_Synthetic_2</t>
-  </si>
-  <si>
-    <t>Group_Dimensions_0</t>
-  </si>
-  <si>
-    <t>Group_Dimensions_1_2</t>
-  </si>
-  <si>
-    <t>Line_Dimensions_1</t>
-  </si>
-  <si>
-    <t>[Counterparties.Description]</t>
-  </si>
-  <si>
-    <t>Line_Dimensions_2</t>
-  </si>
-  <si>
-    <t>[Counterparty contracts.Description]</t>
-  </si>
-  <si>
-    <t>Group_Dimensions_6</t>
-  </si>
-  <si>
-    <t>Line_Dimensions_6</t>
-  </si>
-  <si>
-    <t>[Product categories.Description]</t>
-  </si>
-  <si>
-    <t>[Product range.Description]</t>
-  </si>
-  <si>
-    <t>[Cash flow items.Description]</t>
-  </si>
-  <si>
-    <t>[Income and expense items.Description]</t>
-  </si>
-  <si>
-    <t>Group_Currency</t>
-  </si>
-  <si>
-    <t>Line_Dimensions_6_Currency</t>
-  </si>
-  <si>
-    <t>[Currencies.Description]</t>
+    <t>ВА - ИмпортExcel</t>
+  </si>
+  <si>
+    <t>Контрагенты</t>
+  </si>
+  <si>
+    <t>Договоры контрагентов</t>
+  </si>
+  <si>
+    <t>Товарные категории</t>
+  </si>
+  <si>
+    <t>Номенклатура</t>
+  </si>
+  <si>
+    <t>Статьи ДДС</t>
+  </si>
+  <si>
+    <t>Статьи доходов и расходов</t>
+  </si>
+  <si>
+    <t>Валюты</t>
+  </si>
+  <si>
+    <t>Январь 2023 г.</t>
+  </si>
+  <si>
+    <t>Февраль 2023 г.</t>
+  </si>
+  <si>
+    <t>Март 2023 г.</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Строка_Синтетика_1</t>
+  </si>
+  <si>
+    <t>Группа_Синтетика</t>
+  </si>
+  <si>
+    <t>Строка_Синтетика_2</t>
+  </si>
+  <si>
+    <t>Группа_Аналитики_0</t>
+  </si>
+  <si>
+    <t>Группа_Аналитики_1_2</t>
+  </si>
+  <si>
+    <t>Строка_Аналитики_1</t>
+  </si>
+  <si>
+    <t>[Контрагенты.Наименование]</t>
+  </si>
+  <si>
+    <t>Строка_Аналитики_2</t>
+  </si>
+  <si>
+    <t>[Договоры контрагентов.Наименование]</t>
+  </si>
+  <si>
+    <t>Группа_Аналитики_6</t>
+  </si>
+  <si>
+    <t>Строка_Аналитики_6</t>
+  </si>
+  <si>
+    <t>[Товарные категории.Наименование]</t>
+  </si>
+  <si>
+    <t>[Номенклатура.Наименование]</t>
+  </si>
+  <si>
+    <t>[Статьи ДДС.Наименование]</t>
+  </si>
+  <si>
+    <t>[Статьи доходов и расходов.Наименование]</t>
+  </si>
+  <si>
+    <t>Группа_Валюта</t>
+  </si>
+  <si>
+    <t>Строка_Аналитики_6_Валюта</t>
+  </si>
+  <si>
+    <t>[Валюты.Наименование]</t>
   </si>
 </sst>
 </file>
@@ -260,53 +260,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="0" fontId="0" applyAlignment="true">
+    <xf/>
+    <xf applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="3" fillId="2" borderId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="3" fillId="2" borderId="3" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="3" fillId="2" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="3" fillId="2" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf fontId="4" fillId="3" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf fontId="3" fillId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf fontId="4" fillId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="4" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf fontId="4" fillId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="10"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="4" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="4"/>
     </xf>
   </cellXfs>
@@ -657,7 +657,7 @@
     <mergeCell ref="M4:N4"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
-  <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>
+  <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter alignWithMargins="true" scaleWithDoc="true"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
